--- a/More/Activities/Weather stations's sites.xlsx
+++ b/More/Activities/Weather stations's sites.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="636">
   <si>
     <t>GITEGA</t>
   </si>
@@ -432,9 +432,6 @@
     <t>Gasabo</t>
   </si>
   <si>
-    <t>JALI</t>
-  </si>
-  <si>
     <t>jali_ARG</t>
   </si>
   <si>
@@ -552,9 +549,6 @@
     <t xml:space="preserve">KAGOGO </t>
   </si>
   <si>
-    <t xml:space="preserve">KINONI </t>
-  </si>
-  <si>
     <t>kinoni_ARG</t>
   </si>
   <si>
@@ -1368,9 +1362,6 @@
     <t xml:space="preserve">MURUNDA PAROISSE </t>
   </si>
   <si>
-    <t xml:space="preserve">MUSHUBATI </t>
-  </si>
-  <si>
     <t>Mushubati_ARG</t>
   </si>
   <si>
@@ -1918,6 +1909,24 @@
   </si>
   <si>
     <t>Mushubati _Mannual_Rainfall</t>
+  </si>
+  <si>
+    <t>KINONI 1</t>
+  </si>
+  <si>
+    <t>KINONI 2</t>
+  </si>
+  <si>
+    <t>MUSHUBATI 1</t>
+  </si>
+  <si>
+    <t>MUSHUBATI 2</t>
+  </si>
+  <si>
+    <t>JALI1</t>
+  </si>
+  <si>
+    <t>JALI2</t>
   </si>
 </sst>
 </file>
@@ -2531,7 +2540,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2662,6 +2671,9 @@
     </xf>
     <xf numFmtId="49" fontId="23" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3033,8 +3045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K316"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+    <sheetView tabSelected="1" topLeftCell="A291" workbookViewId="0">
+      <selection activeCell="C261" sqref="C261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3051,23 +3063,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="58" t="s">
-        <v>485</v>
-      </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="G1" s="59" t="s">
-        <v>486</v>
-      </c>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
+      <c r="A1" s="59" t="s">
+        <v>482</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="G1" s="60" t="s">
+        <v>483</v>
+      </c>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
     </row>
     <row r="2" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B2" s="44" t="s">
         <v>52</v>
@@ -3079,10 +3091,10 @@
         <v>54</v>
       </c>
       <c r="G2" s="54" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="H2" s="46" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="I2" s="46" t="s">
         <v>53</v>
@@ -3091,7 +3103,7 @@
         <v>54</v>
       </c>
       <c r="K2" s="48" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -3111,7 +3123,7 @@
         <v>21</v>
       </c>
       <c r="H3" s="49" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="I3" s="49" t="s">
         <v>57</v>
@@ -3120,7 +3132,7 @@
         <v>127</v>
       </c>
       <c r="K3" s="50" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
@@ -3128,7 +3140,7 @@
         <v>51</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>57</v>
@@ -3137,16 +3149,16 @@
         <v>58</v>
       </c>
       <c r="G4" s="49" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="H4" s="49" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="I4" s="49" t="s">
+        <v>168</v>
+      </c>
+      <c r="J4" s="49" t="s">
         <v>169</v>
-      </c>
-      <c r="J4" s="49" t="s">
-        <v>170</v>
       </c>
       <c r="K4" s="53">
         <v>45603</v>
@@ -3169,16 +3181,16 @@
         <v>17</v>
       </c>
       <c r="H5" s="49" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="I5" s="49" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J5" s="49" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K5" s="50" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
@@ -3186,7 +3198,7 @@
         <v>49</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>57</v>
@@ -3198,24 +3210,24 @@
         <v>20</v>
       </c>
       <c r="H6" s="49" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="I6" s="49" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J6" s="49" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K6" s="50" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="56" t="s">
         <v>50</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>57</v>
@@ -3224,23 +3236,23 @@
         <v>58</v>
       </c>
       <c r="G7" s="49" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="H7" s="49" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="I7" s="49" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J7" s="49" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K7" s="53">
         <v>45086</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="55"/>
+      <c r="A8" s="56"/>
       <c r="B8" s="12" t="s">
         <v>61</v>
       </c>
@@ -3251,19 +3263,19 @@
         <v>58</v>
       </c>
       <c r="G8" s="49" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="H8" s="49" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="I8" s="49" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J8" s="49" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K8" s="50" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
@@ -3283,16 +3295,16 @@
         <v>11</v>
       </c>
       <c r="H9" s="51" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="I9" s="51" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J9" s="51" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K9" s="52" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
@@ -3312,24 +3324,24 @@
         <v>5</v>
       </c>
       <c r="H10" s="49" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="I10" s="49" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J10" s="49" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K10" s="50" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="56" t="s">
+      <c r="A11" s="57" t="s">
         <v>29</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>57</v>
@@ -3341,20 +3353,20 @@
         <v>7</v>
       </c>
       <c r="H11" s="49" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="I11" s="49" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J11" s="49" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K11" s="50" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="56"/>
+      <c r="A12" s="57"/>
       <c r="B12" s="13" t="s">
         <v>67</v>
       </c>
@@ -3365,27 +3377,27 @@
         <v>66</v>
       </c>
       <c r="G12" s="49" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="H12" s="49" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="I12" s="49" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J12" s="49" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K12" s="50" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" s="57" t="s">
+      <c r="A13" s="58" t="s">
         <v>31</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>57</v>
@@ -3394,23 +3406,23 @@
         <v>66</v>
       </c>
       <c r="G13" s="49" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="H13" s="49" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="I13" s="49" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="J13" s="49" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="K13" s="50" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="57"/>
+      <c r="A14" s="58"/>
       <c r="B14" s="6" t="s">
         <v>68</v>
       </c>
@@ -3424,24 +3436,24 @@
         <v>16</v>
       </c>
       <c r="H14" s="49" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="I14" s="49" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="J14" s="49" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="K14" s="50" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" s="56" t="s">
+      <c r="A15" s="57" t="s">
         <v>32</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>57</v>
@@ -3450,23 +3462,23 @@
         <v>66</v>
       </c>
       <c r="G15" s="49" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="H15" s="49" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="I15" s="49" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="J15" s="49" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="K15" s="50" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" s="56"/>
+      <c r="A16" s="57"/>
       <c r="B16" s="13" t="s">
         <v>69</v>
       </c>
@@ -3480,16 +3492,16 @@
         <v>14</v>
       </c>
       <c r="H16" s="49" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="I16" s="49" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="J16" s="49" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="K16" s="50" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
@@ -3497,7 +3509,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>57</v>
@@ -3506,19 +3518,19 @@
         <v>66</v>
       </c>
       <c r="G17" s="49" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="H17" s="49" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="I17" s="49" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="J17" s="49" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="K17" s="50" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
@@ -3526,7 +3538,7 @@
         <v>33</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>57</v>
@@ -3552,7 +3564,7 @@
         <v>70</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>57</v>
@@ -3562,11 +3574,11 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A20" s="56" t="s">
+      <c r="A20" s="57" t="s">
         <v>34</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>57</v>
@@ -3576,7 +3588,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A21" s="56"/>
+      <c r="A21" s="57"/>
       <c r="B21" s="13" t="s">
         <v>71</v>
       </c>
@@ -3602,11 +3614,11 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A23" s="56" t="s">
+      <c r="A23" s="57" t="s">
         <v>35</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>57</v>
@@ -3616,7 +3628,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A24" s="56"/>
+      <c r="A24" s="57"/>
       <c r="B24" s="13" t="s">
         <v>75</v>
       </c>
@@ -3628,11 +3640,11 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A25" s="57" t="s">
+      <c r="A25" s="58" t="s">
         <v>36</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>57</v>
@@ -3642,7 +3654,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A26" s="57"/>
+      <c r="A26" s="58"/>
       <c r="B26" s="13" t="s">
         <v>76</v>
       </c>
@@ -3654,7 +3666,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A27" s="56" t="s">
+      <c r="A27" s="57" t="s">
         <v>38</v>
       </c>
       <c r="B27" s="6" t="s">
@@ -3668,9 +3680,9 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A28" s="56"/>
+      <c r="A28" s="57"/>
       <c r="B28" s="16" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C28" s="16" t="s">
         <v>57</v>
@@ -3680,11 +3692,11 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A29" s="56" t="s">
+      <c r="A29" s="57" t="s">
         <v>78</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>57</v>
@@ -3694,7 +3706,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A30" s="56"/>
+      <c r="A30" s="57"/>
       <c r="B30" s="6" t="s">
         <v>79</v>
       </c>
@@ -3707,7 +3719,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B31" s="17" t="s">
         <v>80</v>
@@ -3724,7 +3736,7 @@
         <v>81</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>57</v>
@@ -3734,11 +3746,11 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="56" t="s">
+      <c r="A33" s="57" t="s">
         <v>37</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>57</v>
@@ -3748,7 +3760,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="56"/>
+      <c r="A34" s="57"/>
       <c r="B34" s="13" t="s">
         <v>82</v>
       </c>
@@ -3760,11 +3772,11 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="56" t="s">
+      <c r="A35" s="57" t="s">
         <v>40</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>57</v>
@@ -3774,7 +3786,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="56"/>
+      <c r="A36" s="57"/>
       <c r="B36" s="6" t="s">
         <v>83</v>
       </c>
@@ -3800,11 +3812,11 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="56" t="s">
+      <c r="A38" s="57" t="s">
         <v>39</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>57</v>
@@ -3814,7 +3826,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="56"/>
+      <c r="A39" s="57"/>
       <c r="B39" s="17" t="s">
         <v>86</v>
       </c>
@@ -3840,11 +3852,11 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="56" t="s">
+      <c r="A41" s="57" t="s">
         <v>41</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>57</v>
@@ -3854,7 +3866,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="56"/>
+      <c r="A42" s="57"/>
       <c r="B42" s="13" t="s">
         <v>90</v>
       </c>
@@ -3866,11 +3878,11 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="57" t="s">
+      <c r="A43" s="58" t="s">
         <v>42</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>57</v>
@@ -3880,7 +3892,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" s="57"/>
+      <c r="A44" s="58"/>
       <c r="B44" s="6" t="s">
         <v>91</v>
       </c>
@@ -3910,7 +3922,7 @@
         <v>94</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>57</v>
@@ -3920,11 +3932,11 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" s="56" t="s">
+      <c r="A47" s="57" t="s">
         <v>43</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C47" s="11" t="s">
         <v>57</v>
@@ -3934,7 +3946,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" s="56"/>
+      <c r="A48" s="57"/>
       <c r="B48" s="13" t="s">
         <v>95</v>
       </c>
@@ -3960,11 +3972,11 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" s="56" t="s">
+      <c r="A50" s="57" t="s">
         <v>98</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C50" s="11" t="s">
         <v>57</v>
@@ -3974,7 +3986,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" s="56"/>
+      <c r="A51" s="57"/>
       <c r="B51" s="13" t="s">
         <v>99</v>
       </c>
@@ -3986,11 +3998,11 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" s="57" t="s">
+      <c r="A52" s="58" t="s">
         <v>44</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C52" s="11" t="s">
         <v>57</v>
@@ -4000,7 +4012,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" s="57"/>
+      <c r="A53" s="58"/>
       <c r="B53" s="13" t="s">
         <v>100</v>
       </c>
@@ -4027,7 +4039,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="9" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B55" s="20" t="s">
         <v>103</v>
@@ -4044,7 +4056,7 @@
         <v>45</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C56" s="11" t="s">
         <v>57</v>
@@ -4054,7 +4066,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" s="56" t="s">
+      <c r="A57" s="57" t="s">
         <v>105</v>
       </c>
       <c r="B57" s="6" t="s">
@@ -4068,9 +4080,9 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" s="56"/>
+      <c r="A58" s="57"/>
       <c r="B58" s="24" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C58" s="24" t="s">
         <v>57</v>
@@ -4081,7 +4093,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="4" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B59" s="13" t="s">
         <v>107</v>
@@ -4094,11 +4106,11 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" s="56" t="s">
+      <c r="A60" s="57" t="s">
         <v>46</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C60" s="11" t="s">
         <v>57</v>
@@ -4108,7 +4120,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" s="56"/>
+      <c r="A61" s="57"/>
       <c r="B61" s="13" t="s">
         <v>108</v>
       </c>
@@ -4120,11 +4132,11 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" s="56" t="s">
+      <c r="A62" s="57" t="s">
         <v>47</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C62" s="11" t="s">
         <v>57</v>
@@ -4134,7 +4146,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" s="56"/>
+      <c r="A63" s="57"/>
       <c r="B63" s="13" t="s">
         <v>109</v>
       </c>
@@ -4146,11 +4158,11 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64" s="57" t="s">
+      <c r="A64" s="58" t="s">
         <v>48</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C64" s="11" t="s">
         <v>57</v>
@@ -4160,7 +4172,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65" s="57"/>
+      <c r="A65" s="58"/>
       <c r="B65" s="6" t="s">
         <v>110</v>
       </c>
@@ -4190,7 +4202,7 @@
         <v>114</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C67" s="11" t="s">
         <v>57</v>
@@ -4200,11 +4212,11 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68" s="56" t="s">
+      <c r="A68" s="57" t="s">
         <v>25</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C68" s="11" t="s">
         <v>57</v>
@@ -4214,7 +4226,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69" s="56"/>
+      <c r="A69" s="57"/>
       <c r="B69" s="13" t="s">
         <v>115</v>
       </c>
@@ -4230,7 +4242,7 @@
         <v>28</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C70" s="11" t="s">
         <v>57</v>
@@ -4282,7 +4294,7 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A74" s="56" t="s">
+      <c r="A74" s="57" t="s">
         <v>26</v>
       </c>
       <c r="B74" s="6" t="s">
@@ -4296,9 +4308,9 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A75" s="56"/>
+      <c r="A75" s="57"/>
       <c r="B75" s="16" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C75" s="16" t="s">
         <v>57</v>
@@ -4312,7 +4324,7 @@
         <v>123</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C76" s="11" t="s">
         <v>57</v>
@@ -4322,11 +4334,11 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A77" s="56" t="s">
+      <c r="A77" s="57" t="s">
         <v>27</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C77" s="11" t="s">
         <v>57</v>
@@ -4336,7 +4348,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A78" s="56"/>
+      <c r="A78" s="57"/>
       <c r="B78" s="13" t="s">
         <v>124</v>
       </c>
@@ -4366,7 +4378,7 @@
         <v>128</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C80" s="11" t="s">
         <v>57</v>
@@ -4376,11 +4388,11 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A81" s="56" t="s">
+      <c r="A81" s="57" t="s">
         <v>23</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C81" s="11" t="s">
         <v>57</v>
@@ -4390,7 +4402,7 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A82" s="56"/>
+      <c r="A82" s="57"/>
       <c r="B82" s="13" t="s">
         <v>129</v>
       </c>
@@ -4406,7 +4418,7 @@
         <v>130</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C83" s="11" t="s">
         <v>57</v>
@@ -4416,11 +4428,11 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A84" s="56" t="s">
+      <c r="A84" s="57" t="s">
         <v>24</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C84" s="11" t="s">
         <v>57</v>
@@ -4430,7 +4442,7 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A85" s="56"/>
+      <c r="A85" s="57"/>
       <c r="B85" s="13" t="s">
         <v>131</v>
       </c>
@@ -4442,11 +4454,11 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A86" s="56" t="s">
+      <c r="A86" s="57" t="s">
         <v>22</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C86" s="11" t="s">
         <v>57</v>
@@ -4456,7 +4468,7 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A87" s="56"/>
+      <c r="A87" s="57"/>
       <c r="B87" s="6" t="s">
         <v>132</v>
       </c>
@@ -4482,26 +4494,28 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A89" s="56" t="s">
+      <c r="A89" s="55" t="s">
+        <v>634</v>
+      </c>
+      <c r="B89" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="B89" s="13" t="s">
+      <c r="C89" s="14" t="s">
         <v>138</v>
-      </c>
-      <c r="C89" s="14" t="s">
-        <v>139</v>
       </c>
       <c r="D89" s="15" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A90" s="56"/>
+      <c r="A90" s="55" t="s">
+        <v>635</v>
+      </c>
       <c r="B90" s="27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C90" s="28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D90" s="29" t="s">
         <v>136</v>
@@ -4509,13 +4523,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B91" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="B91" s="13" t="s">
-        <v>142</v>
-      </c>
       <c r="C91" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D91" s="15" t="s">
         <v>136</v>
@@ -4523,39 +4537,39 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B92" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="B92" s="27" t="s">
-        <v>144</v>
-      </c>
       <c r="C92" s="28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D92" s="29" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A93" s="56" t="s">
+      <c r="A93" s="57" t="s">
         <v>2</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D93" s="11" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A94" s="56"/>
+      <c r="A94" s="57"/>
       <c r="B94" s="27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C94" s="28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D94" s="29" t="s">
         <v>136</v>
@@ -4563,13 +4577,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B95" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="B95" s="27" t="s">
-        <v>147</v>
-      </c>
       <c r="C95" s="28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D95" s="29" t="s">
         <v>136</v>
@@ -4577,84 +4591,84 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B96" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="B96" s="13" t="s">
+      <c r="C96" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D96" s="15" t="s">
         <v>149</v>
-      </c>
-      <c r="C96" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="D96" s="15" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B97" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="B97" s="27" t="s">
+      <c r="C97" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="D97" s="29" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A98" s="57" t="s">
         <v>152</v>
       </c>
-      <c r="C97" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="D97" s="29" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A98" s="56" t="s">
+      <c r="B98" s="16" t="s">
+        <v>525</v>
+      </c>
+      <c r="C98" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="D98" s="16" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A99" s="57"/>
+      <c r="B99" s="12" t="s">
         <v>153</v>
-      </c>
-      <c r="B98" s="16" t="s">
-        <v>528</v>
-      </c>
-      <c r="C98" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="D98" s="16" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A99" s="56"/>
-      <c r="B99" s="12" t="s">
-        <v>154</v>
       </c>
       <c r="C99" s="30" t="s">
         <v>135</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B100" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="B100" s="13" t="s">
-        <v>156</v>
-      </c>
       <c r="C100" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D100" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B101" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="B101" s="13" t="s">
-        <v>158</v>
-      </c>
       <c r="C101" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D101" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
@@ -4662,539 +4676,541 @@
         <v>1</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D102" s="11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A103" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B103" s="16" t="s">
+        <v>527</v>
+      </c>
+      <c r="C103" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="D103" s="16" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A104" s="58"/>
+      <c r="B104" s="6" t="s">
         <v>159</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A103" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="B103" s="16" t="s">
-        <v>530</v>
-      </c>
-      <c r="C103" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="D103" s="16" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A104" s="57"/>
-      <c r="B104" s="6" t="s">
-        <v>160</v>
       </c>
       <c r="C104" s="30" t="s">
         <v>135</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B105" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="B105" s="13" t="s">
-        <v>162</v>
-      </c>
       <c r="C105" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D105" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B106" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="B106" s="27" t="s">
-        <v>164</v>
-      </c>
       <c r="C106" s="28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D106" s="29" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B107" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="B107" s="13" t="s">
-        <v>166</v>
-      </c>
       <c r="C107" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D107" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B108" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="B108" s="6" t="s">
+      <c r="C108" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="C108" s="7" t="s">
+      <c r="D108" s="8" t="s">
         <v>169</v>
-      </c>
-      <c r="D108" s="8" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C109" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D109" s="11" t="s">
         <v>169</v>
-      </c>
-      <c r="D109" s="11" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B110" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="B110" s="6" t="s">
-        <v>173</v>
-      </c>
       <c r="C110" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D110" s="8" t="s">
         <v>169</v>
-      </c>
-      <c r="D110" s="8" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B111" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B111" s="6" t="s">
-        <v>175</v>
-      </c>
       <c r="C111" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D111" s="8" t="s">
         <v>169</v>
-      </c>
-      <c r="D111" s="8" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B112" s="11" t="s">
+        <v>529</v>
+      </c>
+      <c r="C112" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D112" s="11" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A113" s="55" t="s">
+        <v>630</v>
+      </c>
+      <c r="B113" s="11" t="s">
+        <v>530</v>
+      </c>
+      <c r="C113" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D113" s="11" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A114" s="55" t="s">
+        <v>631</v>
+      </c>
+      <c r="B114" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="B112" s="11" t="s">
-        <v>532</v>
-      </c>
-      <c r="C112" s="11" t="s">
+      <c r="C114" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="D114" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="D112" s="11" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A113" s="56" t="s">
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A115" s="57" t="s">
         <v>177</v>
       </c>
-      <c r="B113" s="11" t="s">
-        <v>533</v>
-      </c>
-      <c r="C113" s="11" t="s">
+      <c r="B115" s="11" t="s">
+        <v>531</v>
+      </c>
+      <c r="C115" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D115" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="D113" s="11" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A114" s="56"/>
-      <c r="B114" s="13" t="s">
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A116" s="57"/>
+      <c r="B116" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="C114" s="14" t="s">
+      <c r="C116" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D116" s="8" t="s">
         <v>169</v>
-      </c>
-      <c r="D114" s="15" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A115" s="56" t="s">
-        <v>179</v>
-      </c>
-      <c r="B115" s="11" t="s">
-        <v>534</v>
-      </c>
-      <c r="C115" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="D115" s="11" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A116" s="56"/>
-      <c r="B116" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="C116" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="D116" s="8" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B117" s="11" t="s">
+        <v>532</v>
+      </c>
+      <c r="C117" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D117" s="11" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A118" s="57" t="s">
+        <v>180</v>
+      </c>
+      <c r="B118" s="11" t="s">
+        <v>533</v>
+      </c>
+      <c r="C118" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D118" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="B117" s="11" t="s">
-        <v>535</v>
-      </c>
-      <c r="C117" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="D117" s="11" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A118" s="56" t="s">
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A119" s="57"/>
+      <c r="B119" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="B118" s="11" t="s">
-        <v>536</v>
-      </c>
-      <c r="C118" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="D118" s="11" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A119" s="56"/>
-      <c r="B119" s="13" t="s">
-        <v>184</v>
-      </c>
       <c r="C119" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D119" s="15" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B120" s="13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C120" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D120" s="15" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B121" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="C121" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D121" s="11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A122" s="57" t="s">
+        <v>186</v>
+      </c>
+      <c r="B122" s="11" t="s">
+        <v>535</v>
+      </c>
+      <c r="C122" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D122" s="11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A123" s="57"/>
+      <c r="B123" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="B121" s="11" t="s">
-        <v>537</v>
-      </c>
-      <c r="C121" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="D121" s="11" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A122" s="56" t="s">
-        <v>188</v>
-      </c>
-      <c r="B122" s="11" t="s">
-        <v>538</v>
-      </c>
-      <c r="C122" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="D122" s="11" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A123" s="56"/>
-      <c r="B123" s="13" t="s">
-        <v>189</v>
-      </c>
       <c r="C123" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D123" s="15" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B124" s="11" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C124" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D124" s="11" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B125" s="11" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D125" s="11" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B126" s="11" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D126" s="11" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D127" s="11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A128" s="57" t="s">
         <v>193</v>
       </c>
-      <c r="B127" s="6" t="s">
+      <c r="B128" s="11" t="s">
+        <v>539</v>
+      </c>
+      <c r="C128" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D128" s="11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A129" s="57"/>
+      <c r="B129" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C127" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="D127" s="11" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A128" s="56" t="s">
-        <v>195</v>
-      </c>
-      <c r="B128" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="C128" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="D128" s="11" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A129" s="56"/>
-      <c r="B129" s="6" t="s">
-        <v>196</v>
-      </c>
       <c r="C129" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D129" s="11" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B130" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="C130" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="D130" s="22" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A131" s="57" t="s">
         <v>197</v>
       </c>
-      <c r="B130" s="20" t="s">
+      <c r="B131" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="C130" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="D130" s="22" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A131" s="56" t="s">
+      <c r="C131" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="D131" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="B131" s="13" t="s">
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A132" s="57"/>
+      <c r="B132" s="31" t="s">
         <v>200</v>
       </c>
-      <c r="C131" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="D131" s="15" t="s">
+      <c r="C132" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="D132" s="33" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A133" s="57" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A132" s="56"/>
-      <c r="B132" s="31" t="s">
+      <c r="B133" s="16" t="s">
+        <v>540</v>
+      </c>
+      <c r="C133" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D133" s="16" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A134" s="57"/>
+      <c r="B134" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="C132" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="D132" s="33" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A133" s="56" t="s">
+      <c r="C134" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="D134" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A135" s="57" t="s">
         <v>203</v>
       </c>
-      <c r="B133" s="16" t="s">
-        <v>543</v>
-      </c>
-      <c r="C133" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="D133" s="16" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A134" s="56"/>
-      <c r="B134" s="12" t="s">
+      <c r="B135" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="C134" s="30" t="s">
-        <v>169</v>
-      </c>
-      <c r="D134" s="8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A135" s="56" t="s">
+      <c r="C135" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="D135" s="15" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A136" s="57"/>
+      <c r="B136" s="31" t="s">
         <v>205</v>
       </c>
-      <c r="B135" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="C135" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="D135" s="15" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A136" s="56"/>
-      <c r="B136" s="31" t="s">
-        <v>207</v>
-      </c>
       <c r="C136" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D136" s="33" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B137" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="C137" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="D137" s="19" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A138" s="57" t="s">
         <v>208</v>
       </c>
-      <c r="B137" s="17" t="s">
+      <c r="B138" s="11" t="s">
+        <v>541</v>
+      </c>
+      <c r="C138" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D138" s="11" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A139" s="57"/>
+      <c r="B139" s="31" t="s">
         <v>209</v>
       </c>
-      <c r="C137" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="D137" s="19" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A138" s="56" t="s">
-        <v>210</v>
-      </c>
-      <c r="B138" s="11" t="s">
-        <v>544</v>
-      </c>
-      <c r="C138" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="D138" s="11" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A139" s="56"/>
-      <c r="B139" s="31" t="s">
-        <v>211</v>
-      </c>
       <c r="C139" s="34" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D139" s="33" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B140" s="11" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C140" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D140" s="11" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B141" s="35" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C141" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D141" s="35" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.35">
@@ -5202,121 +5218,121 @@
         <v>18</v>
       </c>
       <c r="B142" s="36" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D142" s="36" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A143" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="B143" s="11" t="s">
+        <v>545</v>
+      </c>
+      <c r="C143" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D143" s="11" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A144" s="57"/>
+      <c r="B144" s="12" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A143" s="56" t="s">
+      <c r="C144" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D144" s="8" t="s">
         <v>215</v>
-      </c>
-      <c r="B143" s="11" t="s">
-        <v>548</v>
-      </c>
-      <c r="C143" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="D143" s="11" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A144" s="56"/>
-      <c r="B144" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="C144" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="D144" s="8" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B145" s="13" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C145" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D145" s="15" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B146" s="11" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C146" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D146" s="11" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B147" s="11" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="C147" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D147" s="11" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A148" s="56" t="s">
+      <c r="A148" s="57" t="s">
         <v>19</v>
       </c>
       <c r="B148" s="37" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D148" s="37" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A149" s="56"/>
+      <c r="A149" s="57"/>
       <c r="B149" s="24" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C149" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D149" s="24" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B150" s="38" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="C150" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D150" s="38" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.35">
@@ -5324,13 +5340,13 @@
         <v>3</v>
       </c>
       <c r="B151" s="39" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C151" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D151" s="23" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.35">
@@ -5338,759 +5354,759 @@
         <v>4</v>
       </c>
       <c r="B152" s="13" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C152" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D152" s="15" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B153" s="13" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C153" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D153" s="15" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B154" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="C154" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="D154" s="15" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A155" s="57" t="s">
         <v>228</v>
       </c>
-      <c r="B154" s="13" t="s">
+      <c r="B155" s="11" t="s">
+        <v>551</v>
+      </c>
+      <c r="C155" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D155" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="C154" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="D154" s="15" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A155" s="56" t="s">
+    </row>
+    <row r="156" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A156" s="57"/>
+      <c r="B156" s="40" t="s">
         <v>230</v>
       </c>
-      <c r="B155" s="11" t="s">
-        <v>554</v>
-      </c>
-      <c r="C155" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="D155" s="11" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A156" s="56"/>
-      <c r="B156" s="40" t="s">
-        <v>232</v>
-      </c>
       <c r="C156" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D156" s="15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B157" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C157" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D157" s="15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B158" s="11" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C158" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D158" s="11" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B159" s="20" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C159" s="21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D159" s="22" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B160" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="C160" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D160" s="8" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A161" s="57" t="s">
         <v>238</v>
       </c>
-      <c r="B160" s="6" t="s">
+      <c r="B161" s="11" t="s">
+        <v>553</v>
+      </c>
+      <c r="C161" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D161" s="11" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A162" s="57"/>
+      <c r="B162" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="C160" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="D160" s="8" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A161" s="56" t="s">
+      <c r="C162" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="D162" s="15" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A163" s="57" t="s">
         <v>240</v>
       </c>
-      <c r="B161" s="11" t="s">
-        <v>556</v>
-      </c>
-      <c r="C161" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="D161" s="11" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A162" s="56"/>
-      <c r="B162" s="13" t="s">
+      <c r="B163" s="11" t="s">
+        <v>554</v>
+      </c>
+      <c r="C163" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D163" s="11" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A164" s="57"/>
+      <c r="B164" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="C162" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="D162" s="15" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A163" s="56" t="s">
-        <v>242</v>
-      </c>
-      <c r="B163" s="11" t="s">
-        <v>557</v>
-      </c>
-      <c r="C163" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="D163" s="11" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A164" s="56"/>
-      <c r="B164" s="13" t="s">
-        <v>243</v>
-      </c>
       <c r="C164" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D164" s="15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B165" s="11" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C165" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D165" s="11" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B166" s="11" t="s">
+        <v>556</v>
+      </c>
+      <c r="C166" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="D166" s="11" t="s">
         <v>245</v>
-      </c>
-      <c r="B166" s="11" t="s">
-        <v>559</v>
-      </c>
-      <c r="C166" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="D166" s="11" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B167" s="11" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="C167" s="11" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D167" s="11" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B168" s="11" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C168" s="11" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D168" s="11" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A169" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B169" s="13" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C169" s="14" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D169" s="15" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B170" s="11" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C170" s="11" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D170" s="11" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A171" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B171" s="11" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C171" s="11" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D171" s="11" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C172" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D172" s="8" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B173" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="C173" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="D173" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A174" s="57" t="s">
         <v>256</v>
       </c>
-      <c r="B173" s="12" t="s">
+      <c r="B174" s="11" t="s">
+        <v>561</v>
+      </c>
+      <c r="C174" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="D174" s="11" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A175" s="57"/>
+      <c r="B175" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="C173" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="D173" s="8" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A174" s="56" t="s">
+      <c r="C175" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="D175" s="15" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A176" s="57" t="s">
         <v>258</v>
       </c>
-      <c r="B174" s="11" t="s">
-        <v>564</v>
-      </c>
-      <c r="C174" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="D174" s="11" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A175" s="56"/>
-      <c r="B175" s="13" t="s">
+      <c r="B176" s="11" t="s">
+        <v>562</v>
+      </c>
+      <c r="C176" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="D176" s="11" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A177" s="57"/>
+      <c r="B177" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="C175" s="14" t="s">
-        <v>246</v>
-      </c>
-      <c r="D175" s="15" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A176" s="56" t="s">
-        <v>260</v>
-      </c>
-      <c r="B176" s="11" t="s">
-        <v>565</v>
-      </c>
-      <c r="C176" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="D176" s="11" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A177" s="56"/>
-      <c r="B177" s="13" t="s">
-        <v>261</v>
-      </c>
       <c r="C177" s="14" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D177" s="15" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B178" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="C178" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="D178" s="8" t="s">
         <v>262</v>
-      </c>
-      <c r="B178" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="C178" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="D178" s="8" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B179" s="13" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C179" s="14" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D179" s="15" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B180" s="11" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C180" s="11" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D180" s="11" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B181" s="11" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C181" s="11" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D181" s="11" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B182" s="11" t="s">
+        <v>565</v>
+      </c>
+      <c r="C182" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="D182" s="11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A183" s="57" t="s">
+        <v>268</v>
+      </c>
+      <c r="B183" s="11" t="s">
+        <v>566</v>
+      </c>
+      <c r="C183" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="D183" s="11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A184" s="57"/>
+      <c r="B184" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="B182" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="C182" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="D182" s="11" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A183" s="56" t="s">
-        <v>270</v>
-      </c>
-      <c r="B183" s="11" t="s">
-        <v>569</v>
-      </c>
-      <c r="C183" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="D183" s="11" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A184" s="56"/>
-      <c r="B184" s="6" t="s">
-        <v>271</v>
-      </c>
       <c r="C184" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D184" s="8" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B185" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="C185" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="D185" s="15" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A186" s="57" t="s">
         <v>272</v>
       </c>
-      <c r="B185" s="13" t="s">
+      <c r="B186" s="11" t="s">
+        <v>567</v>
+      </c>
+      <c r="C186" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="D186" s="11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A187" s="57"/>
+      <c r="B187" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="C185" s="14" t="s">
-        <v>246</v>
-      </c>
-      <c r="D185" s="15" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A186" s="56" t="s">
-        <v>274</v>
-      </c>
-      <c r="B186" s="11" t="s">
-        <v>570</v>
-      </c>
-      <c r="C186" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="D186" s="11" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A187" s="56"/>
-      <c r="B187" s="13" t="s">
-        <v>275</v>
-      </c>
       <c r="C187" s="14" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D187" s="15" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B188" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="C188" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="D188" s="15" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A189" s="57" t="s">
         <v>276</v>
       </c>
-      <c r="B188" s="13" t="s">
+      <c r="B189" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="C188" s="14" t="s">
-        <v>246</v>
-      </c>
-      <c r="D188" s="15" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A189" s="56" t="s">
+      <c r="C189" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="D189" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="B189" s="11" t="s">
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A190" s="57"/>
+      <c r="B190" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="C189" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="D189" s="11" t="s">
+      <c r="C190" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="D190" s="8" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A191" s="57" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A190" s="56"/>
-      <c r="B190" s="6" t="s">
+      <c r="B191" s="11" t="s">
+        <v>568</v>
+      </c>
+      <c r="C191" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="D191" s="11" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A192" s="57"/>
+      <c r="B192" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="C190" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="D190" s="8" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A191" s="56" t="s">
-        <v>282</v>
-      </c>
-      <c r="B191" s="11" t="s">
-        <v>571</v>
-      </c>
-      <c r="C191" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="D191" s="11" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A192" s="56"/>
-      <c r="B192" s="12" t="s">
-        <v>283</v>
-      </c>
       <c r="C192" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D192" s="8" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B193" s="11" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C193" s="11" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D193" s="11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B194" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="C194" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="D194" s="8" t="s">
         <v>285</v>
-      </c>
-      <c r="B194" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="C194" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="D194" s="8" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A195" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="B195" s="11" t="s">
+        <v>570</v>
+      </c>
+      <c r="C195" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="D195" s="11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A196" s="57" t="s">
+        <v>287</v>
+      </c>
+      <c r="B196" s="11" t="s">
+        <v>571</v>
+      </c>
+      <c r="C196" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="D196" s="11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A197" s="57"/>
+      <c r="B197" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="B195" s="11" t="s">
-        <v>573</v>
-      </c>
-      <c r="C195" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="D195" s="11" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A196" s="56" t="s">
-        <v>289</v>
-      </c>
-      <c r="B196" s="11" t="s">
-        <v>574</v>
-      </c>
-      <c r="C196" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="D196" s="11" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A197" s="56"/>
-      <c r="B197" s="13" t="s">
-        <v>290</v>
-      </c>
       <c r="C197" s="14" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D197" s="15" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A198" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B198" s="11" t="s">
+        <v>572</v>
+      </c>
+      <c r="C198" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="D198" s="11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A199" s="57" t="s">
+        <v>290</v>
+      </c>
+      <c r="B199" s="11" t="s">
+        <v>573</v>
+      </c>
+      <c r="C199" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="D199" s="11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A200" s="57"/>
+      <c r="B200" s="41" t="s">
         <v>291</v>
       </c>
-      <c r="B198" s="11" t="s">
-        <v>575</v>
-      </c>
-      <c r="C198" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="D198" s="11" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A199" s="56" t="s">
-        <v>292</v>
-      </c>
-      <c r="B199" s="11" t="s">
-        <v>576</v>
-      </c>
-      <c r="C199" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="D199" s="11" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A200" s="56"/>
-      <c r="B200" s="41" t="s">
-        <v>293</v>
-      </c>
       <c r="C200" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D200" s="8" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B201" s="11" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C201" s="11" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D201" s="11" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A202" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B202" s="11" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C202" s="11" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D202" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203" s="4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B203" s="11" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="C203" s="11" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D203" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A204" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B204" s="11" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="C204" s="11" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D204" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A205" s="56" t="s">
+      <c r="A205" s="57" t="s">
         <v>6</v>
       </c>
       <c r="B205" s="16" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="C205" s="16" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D205" s="16" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A206" s="56"/>
+      <c r="A206" s="57"/>
       <c r="B206" s="24" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="C206" s="24" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D206" s="24" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A207" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B207" s="11" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="C207" s="11" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D207" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.35">
@@ -6098,55 +6114,55 @@
         <v>8</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C208" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D208" s="8" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B209" s="17" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C209" s="18" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D209" s="19" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A210" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B210" s="11" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C210" s="11" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D210" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A211" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B211" s="11" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="C211" s="11" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D211" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.35">
@@ -6154,1426 +6170,1428 @@
         <v>9</v>
       </c>
       <c r="B212" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="C212" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="D212" s="15" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A213" s="57" t="s">
+        <v>304</v>
+      </c>
+      <c r="B213" s="11" t="s">
+        <v>583</v>
+      </c>
+      <c r="C213" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="D213" s="11" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A214" s="57"/>
+      <c r="B214" s="13" t="s">
         <v>305</v>
       </c>
-      <c r="C212" s="14" t="s">
-        <v>246</v>
-      </c>
-      <c r="D212" s="15" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A213" s="56" t="s">
-        <v>306</v>
-      </c>
-      <c r="B213" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="C213" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="D213" s="11" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A214" s="56"/>
-      <c r="B214" s="13" t="s">
-        <v>307</v>
-      </c>
       <c r="C214" s="14" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D214" s="15" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215" s="4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B215" s="11" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="C215" s="11" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D215" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A216" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="B216" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="C216" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="D216" s="22" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A217" s="57" t="s">
         <v>309</v>
       </c>
-      <c r="B216" s="20" t="s">
+      <c r="B217" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="C216" s="21" t="s">
-        <v>246</v>
-      </c>
-      <c r="D216" s="22" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A217" s="56" t="s">
+      <c r="C217" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="D217" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="B217" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="C217" s="30" t="s">
-        <v>246</v>
-      </c>
-      <c r="D217" s="8" t="s">
-        <v>313</v>
-      </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A218" s="56"/>
+      <c r="A218" s="57"/>
       <c r="B218" s="11" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="C218" s="11" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D218" s="11" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A219" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B219" s="13" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C219" s="14" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D219" s="15" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A220" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B220" s="13" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C220" s="14" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D220" s="15" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A221" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B221" s="11" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C221" s="11" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D221" s="11" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A222" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B222" s="11" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="C222" s="11" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D222" s="11" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A223" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B223" s="17" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C223" s="18" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D223" s="19" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A224" s="4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B224" s="11" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="C224" s="11" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D224" s="11" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A225" s="4" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B225" s="11" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C225" s="11" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D225" s="11" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A226" s="4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B226" s="12" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C226" s="30" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D226" s="8" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A227" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C227" s="30" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D227" s="8" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A228" s="4" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B228" s="11" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C228" s="11" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D228" s="11" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A229" s="4" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B229" s="20" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C229" s="21" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D229" s="22" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A230" s="4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B230" s="20" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C230" s="21" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D230" s="22" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A231" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="B231" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="C231" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="D231" s="15" t="s">
         <v>333</v>
       </c>
-      <c r="B231" s="13" t="s">
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A232" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B232" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="C231" s="14" t="s">
-        <v>246</v>
-      </c>
-      <c r="D231" s="15" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A232" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="B232" s="6" t="s">
-        <v>336</v>
-      </c>
       <c r="C232" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D232" s="8" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A233" s="56"/>
+      <c r="A233" s="57"/>
       <c r="B233" s="16" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C233" s="16" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D233" s="16" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A234" s="4" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B234" s="11" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C234" s="11" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D234" s="11" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A235" s="4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B235" s="11" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C235" s="11" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D235" s="11" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A236" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="B236" s="11" t="s">
+        <v>594</v>
+      </c>
+      <c r="C236" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="D236" s="11" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A237" s="57" t="s">
+        <v>338</v>
+      </c>
+      <c r="B237" s="11" t="s">
+        <v>595</v>
+      </c>
+      <c r="C237" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="D237" s="11" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A238" s="57"/>
+      <c r="B238" s="13" t="s">
         <v>339</v>
       </c>
-      <c r="B236" s="11" t="s">
-        <v>597</v>
-      </c>
-      <c r="C236" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="D236" s="11" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A237" s="56" t="s">
-        <v>340</v>
-      </c>
-      <c r="B237" s="11" t="s">
-        <v>598</v>
-      </c>
-      <c r="C237" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="D237" s="11" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A238" s="56"/>
-      <c r="B238" s="13" t="s">
-        <v>341</v>
-      </c>
       <c r="C238" s="14" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D238" s="15" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A239" s="4" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B239" s="13" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C239" s="14" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D239" s="15" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A240" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B240" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="C240" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="D240" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="C240" s="14" t="s">
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A241" s="57" t="s">
         <v>346</v>
       </c>
-      <c r="D240" s="15" t="s">
+      <c r="B241" s="11" t="s">
+        <v>596</v>
+      </c>
+      <c r="C241" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="D241" s="11" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A242" s="57"/>
+      <c r="B242" s="6" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A241" s="56" t="s">
-        <v>348</v>
-      </c>
-      <c r="B241" s="11" t="s">
-        <v>599</v>
-      </c>
-      <c r="C241" s="11" t="s">
-        <v>346</v>
-      </c>
-      <c r="D241" s="11" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A242" s="56"/>
-      <c r="B242" s="6" t="s">
-        <v>349</v>
-      </c>
       <c r="C242" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D242" s="8" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A243" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B243" s="13" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C243" s="14" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D243" s="15" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A244" s="4" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B244" s="13" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C244" s="14" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D244" s="15" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A245" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="B245" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="C245" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="D245" s="8" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A246" s="57" t="s">
         <v>354</v>
       </c>
-      <c r="B245" s="6" t="s">
+      <c r="B246" s="16" t="s">
+        <v>597</v>
+      </c>
+      <c r="C246" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="D246" s="16" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A247" s="57"/>
+      <c r="B247" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="C245" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="D245" s="8" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A246" s="56" t="s">
-        <v>356</v>
-      </c>
-      <c r="B246" s="16" t="s">
-        <v>600</v>
-      </c>
-      <c r="C246" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="D246" s="16" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A247" s="56"/>
-      <c r="B247" s="6" t="s">
-        <v>357</v>
-      </c>
       <c r="C247" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D247" s="8" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A248" s="4" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B248" s="11" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="C248" s="11" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D248" s="11" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A249" s="4" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B249" s="20" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C249" s="21" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D249" s="22" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A250" s="4" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B250" s="12" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C250" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D250" s="8" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A251" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B251" s="11" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C251" s="11" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D251" s="11" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A252" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="B252" s="11" t="s">
+        <v>600</v>
+      </c>
+      <c r="C252" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="D252" s="11" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A253" s="57" t="s">
         <v>364</v>
       </c>
-      <c r="B252" s="11" t="s">
-        <v>603</v>
-      </c>
-      <c r="C252" s="11" t="s">
-        <v>346</v>
-      </c>
-      <c r="D252" s="11" t="s">
+      <c r="B253" s="11" t="s">
+        <v>601</v>
+      </c>
+      <c r="C253" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="D253" s="11" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A254" s="57"/>
+      <c r="B254" s="13" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A253" s="56" t="s">
-        <v>366</v>
-      </c>
-      <c r="B253" s="11" t="s">
-        <v>604</v>
-      </c>
-      <c r="C253" s="11" t="s">
-        <v>346</v>
-      </c>
-      <c r="D253" s="11" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A254" s="56"/>
-      <c r="B254" s="13" t="s">
-        <v>367</v>
-      </c>
       <c r="C254" s="14" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D254" s="15" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A255" s="4" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C255" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D255" s="8" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A256" s="4" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B256" s="11" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="C256" s="11" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D256" s="11" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A257" s="4" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B257" s="12" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C257" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D257" s="8" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A258" s="4" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B258" s="11" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C258" s="11" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D258" s="11" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A259" s="4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C259" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D259" s="8" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A260" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B260" s="11" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C260" s="11" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D260" s="11" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A261" s="4" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B261" s="11" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="C261" s="11" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D261" s="11" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A262" s="4" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B262" s="11" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="C262" s="11" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D262" s="11" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A263" s="4" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B263" s="17" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C263" s="18" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D263" s="19" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A264" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="B264" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="C264" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="D264" s="8" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A265" s="57" t="s">
         <v>382</v>
       </c>
-      <c r="B264" s="12" t="s">
+      <c r="B265" s="11" t="s">
+        <v>607</v>
+      </c>
+      <c r="C265" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="D265" s="11" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A266" s="57"/>
+      <c r="B266" s="13" t="s">
         <v>383</v>
       </c>
-      <c r="C264" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="D264" s="8" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A265" s="56" t="s">
-        <v>384</v>
-      </c>
-      <c r="B265" s="11" t="s">
-        <v>610</v>
-      </c>
-      <c r="C265" s="11" t="s">
-        <v>346</v>
-      </c>
-      <c r="D265" s="11" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A266" s="56"/>
-      <c r="B266" s="13" t="s">
-        <v>385</v>
-      </c>
       <c r="C266" s="14" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D266" s="15" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A267" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B267" s="11" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="C267" s="11" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D267" s="11" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A268" s="4" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B268" s="11" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="C268" s="11" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D268" s="11" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A269" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="B269" s="20" t="s">
+        <v>388</v>
+      </c>
+      <c r="C269" s="21" t="s">
+        <v>344</v>
+      </c>
+      <c r="D269" s="22" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A270" s="57" t="s">
         <v>389</v>
       </c>
-      <c r="B269" s="20" t="s">
+      <c r="B270" s="11" t="s">
+        <v>610</v>
+      </c>
+      <c r="C270" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="D270" s="11" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A271" s="57"/>
+      <c r="B271" s="12" t="s">
         <v>390</v>
       </c>
-      <c r="C269" s="21" t="s">
-        <v>346</v>
-      </c>
-      <c r="D269" s="22" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A270" s="56" t="s">
-        <v>391</v>
-      </c>
-      <c r="B270" s="11" t="s">
-        <v>613</v>
-      </c>
-      <c r="C270" s="11" t="s">
-        <v>346</v>
-      </c>
-      <c r="D270" s="11" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A271" s="56"/>
-      <c r="B271" s="12" t="s">
-        <v>392</v>
-      </c>
       <c r="C271" s="30" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D271" s="8" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A272" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B272" s="11" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="C272" s="11" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D272" s="11" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A273" s="4" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B273" s="17" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C273" s="18" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D273" s="19" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A274" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="B274" s="11" t="s">
+        <v>612</v>
+      </c>
+      <c r="C274" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="D274" s="11" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A275" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B275" s="41" t="s">
+        <v>395</v>
+      </c>
+      <c r="C275" s="30" t="s">
+        <v>344</v>
+      </c>
+      <c r="D275" s="8" t="s">
         <v>396</v>
       </c>
-      <c r="B274" s="11" t="s">
-        <v>615</v>
-      </c>
-      <c r="C274" s="11" t="s">
-        <v>346</v>
-      </c>
-      <c r="D274" s="11" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A275" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B275" s="41" t="s">
-        <v>397</v>
-      </c>
-      <c r="C275" s="30" t="s">
-        <v>346</v>
-      </c>
-      <c r="D275" s="8" t="s">
-        <v>398</v>
-      </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A276" s="56"/>
+      <c r="A276" s="57"/>
       <c r="B276" s="11" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C276" s="11" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D276" s="11" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A277" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="B277" s="13" t="s">
+        <v>398</v>
+      </c>
+      <c r="C277" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="D277" s="15" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A278" s="57" t="s">
         <v>399</v>
       </c>
-      <c r="B277" s="13" t="s">
+      <c r="B278" s="13" t="s">
         <v>400</v>
       </c>
-      <c r="C277" s="14" t="s">
-        <v>346</v>
-      </c>
-      <c r="D277" s="15" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A278" s="56" t="s">
-        <v>401</v>
-      </c>
-      <c r="B278" s="13" t="s">
-        <v>402</v>
-      </c>
       <c r="C278" s="14" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D278" s="15" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A279" s="56"/>
+      <c r="A279" s="57"/>
       <c r="B279" s="11" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C279" s="11" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D279" s="11" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A280" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="B280" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="C280" s="30" t="s">
+        <v>344</v>
+      </c>
+      <c r="D280" s="8" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A281" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="B281" s="11" t="s">
+        <v>615</v>
+      </c>
+      <c r="C281" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="D281" s="11" t="s">
         <v>403</v>
       </c>
-      <c r="B280" s="6" t="s">
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A282" s="57"/>
+      <c r="B282" s="13" t="s">
         <v>404</v>
       </c>
-      <c r="C280" s="30" t="s">
-        <v>346</v>
-      </c>
-      <c r="D280" s="8" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A281" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="B281" s="11" t="s">
-        <v>618</v>
-      </c>
-      <c r="C281" s="11" t="s">
-        <v>346</v>
-      </c>
-      <c r="D281" s="11" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A282" s="56"/>
-      <c r="B282" s="13" t="s">
-        <v>406</v>
-      </c>
       <c r="C282" s="14" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D282" s="15" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A283" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="B283" s="13" t="s">
+        <v>406</v>
+      </c>
+      <c r="C283" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="D283" s="15" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A284" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="B284" s="16" t="s">
+        <v>616</v>
+      </c>
+      <c r="C284" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="D284" s="16" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A285" s="57"/>
+      <c r="B285" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="B283" s="13" t="s">
-        <v>408</v>
-      </c>
-      <c r="C283" s="14" t="s">
-        <v>346</v>
-      </c>
-      <c r="D283" s="15" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A284" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="B284" s="16" t="s">
-        <v>619</v>
-      </c>
-      <c r="C284" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="D284" s="16" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A285" s="56"/>
-      <c r="B285" s="6" t="s">
-        <v>409</v>
-      </c>
       <c r="C285" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D285" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A286" s="4" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B286" s="11" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C286" s="11" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D286" s="11" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A287" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B287" s="13" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C287" s="14" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D287" s="15" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A288" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C288" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D288" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A289" s="4" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B289" s="11" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="C289" s="11" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D289" s="11" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A290" s="4" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B290" s="13" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C290" s="14" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D290" s="15" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A291" s="4" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B291" s="11" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C291" s="11" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D291" s="11" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A292" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="B292" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="C292" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="D292" s="8" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A293" s="57" t="s">
         <v>419</v>
       </c>
-      <c r="B292" s="6" t="s">
+      <c r="B293" s="11" t="s">
+        <v>620</v>
+      </c>
+      <c r="C293" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="D293" s="11" t="s">
         <v>420</v>
       </c>
-      <c r="C292" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="D292" s="8" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A293" s="56" t="s">
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A294" s="57"/>
+      <c r="B294" s="41" t="s">
         <v>421</v>
       </c>
-      <c r="B293" s="11" t="s">
-        <v>623</v>
-      </c>
-      <c r="C293" s="11" t="s">
-        <v>346</v>
-      </c>
-      <c r="D293" s="11" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A294" s="56"/>
-      <c r="B294" s="41" t="s">
-        <v>423</v>
-      </c>
       <c r="C294" s="42" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D294" s="8" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A295" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="B295" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="C295" s="42" t="s">
+        <v>344</v>
+      </c>
+      <c r="D295" s="8" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A296" s="57" t="s">
         <v>424</v>
       </c>
-      <c r="B295" s="6" t="s">
+      <c r="B296" s="24" t="s">
+        <v>621</v>
+      </c>
+      <c r="C296" s="24" t="s">
+        <v>344</v>
+      </c>
+      <c r="D296" s="24" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A297" s="57"/>
+      <c r="B297" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="C295" s="42" t="s">
-        <v>346</v>
-      </c>
-      <c r="D295" s="8" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A296" s="56" t="s">
-        <v>426</v>
-      </c>
-      <c r="B296" s="24" t="s">
-        <v>624</v>
-      </c>
-      <c r="C296" s="24" t="s">
-        <v>346</v>
-      </c>
-      <c r="D296" s="24" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A297" s="56"/>
-      <c r="B297" s="6" t="s">
-        <v>427</v>
-      </c>
       <c r="C297" s="42" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D297" s="8" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A298" s="43" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B298" s="11" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="C298" s="11" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D298" s="11" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A299" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="B299" s="11" t="s">
+        <v>623</v>
+      </c>
+      <c r="C299" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="D299" s="11" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A300" s="57" t="s">
+        <v>428</v>
+      </c>
+      <c r="B300" s="11" t="s">
+        <v>624</v>
+      </c>
+      <c r="C300" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="D300" s="11" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A301" s="57"/>
+      <c r="B301" s="13" t="s">
         <v>429</v>
       </c>
-      <c r="B299" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="C299" s="11" t="s">
-        <v>346</v>
-      </c>
-      <c r="D299" s="11" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A300" s="56" t="s">
-        <v>430</v>
-      </c>
-      <c r="B300" s="11" t="s">
-        <v>627</v>
-      </c>
-      <c r="C300" s="11" t="s">
-        <v>346</v>
-      </c>
-      <c r="D300" s="11" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A301" s="56"/>
-      <c r="B301" s="13" t="s">
-        <v>431</v>
-      </c>
       <c r="C301" s="14" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D301" s="15" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A302" s="4" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B302" s="6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C302" s="42" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D302" s="8" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A303" s="4" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B303" s="11" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C303" s="11" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D303" s="11" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A304" s="4" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B304" s="13" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C304" s="14" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D304" s="15" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A305" s="4" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B305" s="20" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C305" s="21" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D305" s="22" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A306" s="4" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B306" s="11" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="C306" s="11" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D306" s="11" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A307" s="4" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B307" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C307" s="42" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D307" s="8" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A308" s="4" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B308" s="11" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="C308" s="11" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D308" s="11" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A309" s="4" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B309" s="13" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C309" s="14" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D309" s="15" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A310" s="4" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B310" s="17" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C310" s="18" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D310" s="19" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A311" s="4" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B311" s="11" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="C311" s="11" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D311" s="11" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A312" s="56" t="s">
-        <v>449</v>
+      <c r="A312" s="55" t="s">
+        <v>632</v>
       </c>
       <c r="B312" s="11" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="C312" s="11" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D312" s="11" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A313" s="56"/>
+      <c r="A313" s="55" t="s">
+        <v>633</v>
+      </c>
       <c r="B313" s="13" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C313" s="14" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D313" s="15" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A314" s="4" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B314" s="6" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C314" s="42" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D314" s="8" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A315" s="4" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B315" s="13" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C315" s="14" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D315" s="15" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="316" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A316" s="45">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B316" s="45">
         <v>313</v>
@@ -7591,9 +7609,8 @@
     <sortCondition ref="J3:J17"/>
     <sortCondition ref="K3:K17"/>
   </sortState>
-  <mergeCells count="73">
+  <mergeCells count="70">
     <mergeCell ref="A300:A301"/>
-    <mergeCell ref="A312:A313"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="G1:K1"/>
     <mergeCell ref="A284:A285"/>
@@ -7626,18 +7643,16 @@
     <mergeCell ref="A138:A139"/>
     <mergeCell ref="A143:A144"/>
     <mergeCell ref="A148:A149"/>
-    <mergeCell ref="A131:A132"/>
     <mergeCell ref="A133:A134"/>
     <mergeCell ref="A135:A136"/>
     <mergeCell ref="A118:A119"/>
     <mergeCell ref="A122:A123"/>
     <mergeCell ref="A128:A129"/>
     <mergeCell ref="A103:A104"/>
-    <mergeCell ref="A113:A114"/>
     <mergeCell ref="A115:A116"/>
-    <mergeCell ref="A89:A90"/>
     <mergeCell ref="A93:A94"/>
     <mergeCell ref="A98:A99"/>
+    <mergeCell ref="A131:A132"/>
     <mergeCell ref="A81:A82"/>
     <mergeCell ref="A84:A85"/>
     <mergeCell ref="A86:A87"/>
@@ -7666,14 +7681,14 @@
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A27:A28"/>
   </mergeCells>
-  <conditionalFormatting sqref="A219:A232 A2:A7 A267:A270 A314:A315 A302:A312 A298:A300 A295:A296 A283:A284 A280:A281 A255:A265 A234:A237 A248:A253 A243:A246 A239:A241 A133 A215:A217 A207:A213 A150:A155 A198:A199 A100:A103 A105:A113 A9:A11 A13 A15 A17:A20 A22:A23 A25 A27 A29 A31:A33 A35 A37:A38 A40:A41 A43 A45:A47 A49:A50 A52 A54:A57 A59:A60 A62 A64 A66:A68 A70:A74 A76:A77 A79:A81 A83:A84 A86 A88:A89 A91:A93 A95:A98 A115 A117:A118 A120:A122 A124:A128 A130:A131 A135 A137:A138 A140:A143 A145:A148 A272:A275 A277:A278 A286:A293 A157:A161 A163 A165:A174 A176 A178:A183 A185:A186 A188:A189 A191 A193:A196 A201:A205">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+  <conditionalFormatting sqref="A277:A278 A298:A300 A295:A296 A283:A284 A280:A281 A275 A286:A293 A302:A315">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A314:A315 A277:A278 A302:A312 A298:A300 A295:A296 A283:A284 A280:A281 A275 A286:A293">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  <conditionalFormatting sqref="A219:A232 A2:A7 A267:A270 A298:A300 A295:A296 A283:A284 A280:A281 A255:A265 A234:A237 A248:A253 A243:A246 A239:A241 A133 A215:A217 A207:A213 A150:A155 A198:A199 A100:A103 A9:A11 A13 A15 A17:A20 A22:A23 A25 A27 A29 A31:A33 A35 A37:A38 A40:A41 A43 A45:A47 A49:A50 A52 A54:A57 A59:A60 A62 A64 A66:A68 A70:A74 A76:A77 A79:A81 A83:A84 A86 A95:A98 A117:A118 A120:A122 A124:A128 A130:A131 A135 A137:A138 A140:A143 A145:A148 A272:A275 A277:A278 A286:A293 A157:A161 A163 A165:A174 A176 A178:A183 A185:A186 A188:A189 A191 A193:A196 A201:A205 A105:A115 A302:A315 A88:A93">
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A314:A315 A302:A312 A298:A300 A295:A296 A283:A284 A280:A281 A255:A265 A248:A253 A243:A246 A239:A241 A234:A237 A3:A7 A215:A217 A207:A213 A150:A155 A198:A199 A100:A103 A105:A113 A9:A11 A13 A15 A17:A20 A22:A23 A25 A27 A29 A31:A33 A35 A37:A38 A40:A41 A43 A45:A47 A49:A50 A52 A54:A57 A59:A60 A62 A64 A66:A68 A70:A74 A76:A77 A79:A81 A83:A84 A86 A88:A89 A91:A93 A95:A98 A115 A117:A118 A120:A122 A124:A128 A130:A131 A133 A135 A137:A138 A140:A143 A145:A148 A219:A232 A272:A275 A277:A278 A286:A293 A157:A161 A163 A165:A174 A176 A178:A183 A185:A186 A188:A189 A191 A193:A196 A201:A205 A267:A270">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  <conditionalFormatting sqref="A298:A300 A295:A296 A283:A284 A280:A281 A255:A265 A248:A253 A243:A246 A239:A241 A234:A237 A3:A7 A215:A217 A207:A213 A150:A155 A198:A199 A100:A103 A9:A11 A13 A15 A17:A20 A22:A23 A25 A27 A29 A31:A33 A35 A37:A38 A40:A41 A43 A45:A47 A49:A50 A52 A54:A57 A59:A60 A62 A64 A66:A68 A70:A74 A76:A77 A79:A81 A83:A84 A86 A95:A98 A117:A118 A120:A122 A124:A128 A130:A131 A133 A135 A137:A138 A140:A143 A145:A148 A219:A232 A272:A275 A277:A278 A286:A293 A157:A161 A163 A165:A174 A176 A178:A183 A185:A186 A188:A189 A191 A193:A196 A201:A205 A267:A270 A105:A115 A302:A315 A88:A93">
+    <cfRule type="duplicateValues" dxfId="0" priority="77"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
